--- a/Code/Results/Cases/Case_0_208/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_208/res_line/loading_percent.xlsx
@@ -420,23 +420,20 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.928349306536779</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>20.29639185120866</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>16.71474239375433</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>97.24221052020241</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.55441544481558</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -447,16 +444,7 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
@@ -467,115 +455,805 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>4.749823462246695</v>
+      </c>
+      <c r="D3">
+        <v>19.19423032058381</v>
+      </c>
+      <c r="E3">
+        <v>15.66089795874097</v>
+      </c>
+      <c r="F3">
+        <v>91.82476559339936</v>
+      </c>
+      <c r="G3">
+        <v>3.585978142997535</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>4.642425872294266</v>
+      </c>
+      <c r="D4">
+        <v>18.51214447045767</v>
+      </c>
+      <c r="E4">
+        <v>15.00190026052069</v>
+      </c>
+      <c r="F4">
+        <v>88.46228545311712</v>
+      </c>
+      <c r="G4">
+        <v>3.605732078410163</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>4.599228673722917</v>
+      </c>
+      <c r="D5">
+        <v>18.23299088120303</v>
+      </c>
+      <c r="E5">
+        <v>14.73041804766864</v>
+      </c>
+      <c r="F5">
+        <v>87.08368989401761</v>
+      </c>
+      <c r="G5">
+        <v>3.61388761726975</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>4.592090563235044</v>
+      </c>
+      <c r="D6">
+        <v>18.18657116238815</v>
+      </c>
+      <c r="E6">
+        <v>14.68516485437422</v>
+      </c>
+      <c r="F6">
+        <v>86.85429951711473</v>
+      </c>
+      <c r="G6">
+        <v>3.615248533974651</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>4.641840980367758</v>
+      </c>
+      <c r="D7">
+        <v>18.5083843038131</v>
+      </c>
+      <c r="E7">
+        <v>14.99825069489198</v>
+      </c>
+      <c r="F7">
+        <v>88.44372581043518</v>
+      </c>
+      <c r="G7">
+        <v>3.605841624706085</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>4.866337092428904</v>
+      </c>
+      <c r="D8">
+        <v>19.9175410091083</v>
+      </c>
+      <c r="E8">
+        <v>16.353866761972</v>
+      </c>
+      <c r="F8">
+        <v>95.38208889547784</v>
+      </c>
+      <c r="G8">
+        <v>3.565227906670703</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>5.324221734732037</v>
+      </c>
+      <c r="D9">
+        <v>22.6365356015826</v>
+      </c>
+      <c r="E9">
+        <v>19.13894374348241</v>
+      </c>
+      <c r="F9">
+        <v>108.6920411870864</v>
+      </c>
+      <c r="G9">
+        <v>3.487960174983352</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>5.672483101186319</v>
+      </c>
+      <c r="D10">
+        <v>24.61208697857024</v>
+      </c>
+      <c r="E10">
+        <v>21.17962370047441</v>
+      </c>
+      <c r="F10">
+        <v>118.3137673906942</v>
+      </c>
+      <c r="G10">
+        <v>3.431669795184721</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>5.8340940722247</v>
+      </c>
+      <c r="D11">
+        <v>25.50942059502347</v>
+      </c>
+      <c r="E11">
+        <v>22.08803563656681</v>
+      </c>
+      <c r="F11">
+        <v>122.6730052504832</v>
+      </c>
+      <c r="G11">
+        <v>3.405898139164262</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>5.895831728298708</v>
+      </c>
+      <c r="D12">
+        <v>25.84948314868164</v>
+      </c>
+      <c r="E12">
+        <v>22.42982633693527</v>
+      </c>
+      <c r="F12">
+        <v>124.3233667265096</v>
+      </c>
+      <c r="G12">
+        <v>3.396087828836773</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>5.882509823172401</v>
+      </c>
+      <c r="D13">
+        <v>25.77622393933662</v>
+      </c>
+      <c r="E13">
+        <v>22.35630184955144</v>
+      </c>
+      <c r="F13">
+        <v>123.9679064823982</v>
+      </c>
+      <c r="G13">
+        <v>3.39820342430928</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>5.839161889023251</v>
+      </c>
+      <c r="D14">
+        <v>25.53738930791186</v>
+      </c>
+      <c r="E14">
+        <v>22.11619494681419</v>
+      </c>
+      <c r="F14">
+        <v>122.8087741548437</v>
+      </c>
+      <c r="G14">
+        <v>3.40509224035068</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>5.812683155830049</v>
+      </c>
+      <c r="D15">
+        <v>25.391146584236</v>
+      </c>
+      <c r="E15">
+        <v>21.96885697974165</v>
+      </c>
+      <c r="F15">
+        <v>122.0987987392269</v>
+      </c>
+      <c r="G15">
+        <v>3.409304273505156</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>5.66199179813573</v>
+      </c>
+      <c r="D16">
+        <v>24.55345231886148</v>
+      </c>
+      <c r="E16">
+        <v>21.11990974935953</v>
+      </c>
+      <c r="F16">
+        <v>118.0286922358211</v>
+      </c>
+      <c r="G16">
+        <v>3.433348487801018</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>5.570411948615696</v>
+      </c>
+      <c r="D17">
+        <v>24.03948340489301</v>
+      </c>
+      <c r="E17">
+        <v>20.59444084663162</v>
+      </c>
+      <c r="F17">
+        <v>115.5285828217663</v>
+      </c>
+      <c r="G17">
+        <v>3.448038664455037</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>5.51803099317342</v>
+      </c>
+      <c r="D18">
+        <v>23.7436984783063</v>
+      </c>
+      <c r="E18">
+        <v>20.29028595371057</v>
+      </c>
+      <c r="F18">
+        <v>114.0887461388421</v>
+      </c>
+      <c r="G18">
+        <v>3.45647445999395</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>5.500344086005892</v>
+      </c>
+      <c r="D19">
+        <v>23.64351129322847</v>
+      </c>
+      <c r="E19">
+        <v>20.18695663517352</v>
+      </c>
+      <c r="F19">
+        <v>113.6008720989531</v>
+      </c>
+      <c r="G19">
+        <v>3.459329092297771</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>5.580129925536995</v>
+      </c>
+      <c r="D20">
+        <v>24.09421039644484</v>
+      </c>
+      <c r="E20">
+        <v>20.6505721506189</v>
+      </c>
+      <c r="F20">
+        <v>115.7949008280863</v>
+      </c>
+      <c r="G20">
+        <v>3.446476460503277</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>5.851878799503208</v>
+      </c>
+      <c r="D21">
+        <v>25.60752928151205</v>
+      </c>
+      <c r="E21">
+        <v>22.18677415131338</v>
+      </c>
+      <c r="F21">
+        <v>123.1492289248944</v>
+      </c>
+      <c r="G21">
+        <v>3.403070461507978</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>6.032685581193372</v>
+      </c>
+      <c r="D22">
+        <v>26.59843064359023</v>
+      </c>
+      <c r="E22">
+        <v>23.17831974472015</v>
+      </c>
+      <c r="F22">
+        <v>127.9796083969747</v>
+      </c>
+      <c r="G22">
+        <v>3.374387135012784</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>5.935857412223402</v>
+      </c>
+      <c r="D23">
+        <v>26.06920319693468</v>
+      </c>
+      <c r="E23">
+        <v>22.65000089288639</v>
+      </c>
+      <c r="F23">
+        <v>125.3892247109193</v>
+      </c>
+      <c r="G23">
+        <v>3.389735328949576</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>5.575735594382146</v>
+      </c>
+      <c r="D24">
+        <v>24.0694692820879</v>
+      </c>
+      <c r="E24">
+        <v>20.62520163944076</v>
+      </c>
+      <c r="F24">
+        <v>115.6745063680364</v>
+      </c>
+      <c r="G24">
+        <v>3.447182761380638</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>5.198405793318395</v>
+      </c>
+      <c r="D25">
+        <v>21.90560128611367</v>
+      </c>
+      <c r="E25">
+        <v>18.36603129323321</v>
+      </c>
+      <c r="F25">
+        <v>105.1224905665563</v>
+      </c>
+      <c r="G25">
+        <v>3.508699974321547</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
